--- a/old maximov/streams0.xlsx
+++ b/old maximov/streams0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012531F4-FA96-41E2-AA60-AFB7E1A8F923}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0F147E-4714-4554-A47B-2148D162145F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -132,30 +132,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -252,10 +234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,15 +249,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,9 +271,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -317,44 +286,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{833C66B1-4070-4F6B-8BE7-834B60BC98EC}"/>
@@ -655,287 +587,287 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="13"/>
-    <col min="3" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="9.140625" style="15"/>
-    <col min="6" max="10" width="9.140625" style="14"/>
-    <col min="11" max="11" width="9.140625" style="13"/>
-    <col min="12" max="14" width="9.140625" style="14"/>
-    <col min="15" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="6" max="10" width="9.140625" style="10"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="14" width="9.140625" style="10"/>
+    <col min="15" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="9">
         <v>542.1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>0.1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <f>[1]!PropsSI("H","P",C2*10^6,"T",B2+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F2:J2))/1000</f>
         <v>958.86919853128609</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>503.8</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="P2" s="23"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <v>468.05</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>0.1</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <f>[1]!PropsSI("H","P",C3*10^6,"T",B3+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F3:J3))/1000</f>
         <v>874.26792911178234</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>503.8</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>309.2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>0.1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <f>[1]!PropsSI("H","P",C4*10^6,"T",B4+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F4:J4))/1000</f>
         <v>697.66595139225319</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>503.8</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>235.9</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>0.1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F5:J5))/1000</f>
         <v>618.33586643179672</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>503.8</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>233</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>0.1</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F6:J6))/1000</f>
         <v>615.22281759257271</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>503.8</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>175.5</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>0.1</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <f>[1]!PropsSI("H","P",C7*10^6,"T",B7+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F7:J7))/1000</f>
         <v>553.86016830512403</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>503.8</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>106.9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>0.1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <f>[1]!PropsSI("H","P",C8*10^6,"T",B8+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F8:J8))/1000</f>
         <v>481.43243266974537</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>503.8</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,235 +878,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="9" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="9" width="9.140625" style="3"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="9">
         <v>511.5</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>8.407</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <f>[1]!PropsSI("H","T",B2+273.15,"P",C2*10^6,"Water")/1000</f>
         <v>3423.2099783420958</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>63.4</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <f>[1]!PropsSI("T","P",C3*10^6,"Q",1,"Water")-273.15</f>
         <v>301.29755574753347</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>8.7460000000000004</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <f>[1]!PropsSI("H","T",B3+273.15,"Q",1,"Water")/1000</f>
         <v>2747.1040230157951</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>63.4</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>298.8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>8.7460000000000004</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
         <v>1337.9482651031026</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>63.4</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>166.5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>8.7460000000000004</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
         <v>708.31984887431372</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>63.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="9">
         <v>164.5</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="10">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="10">
         <f>[1]!PropsSI("H","T",B6+273.15,"P",C6*10^6,"Water")/1000</f>
         <v>695.05874428701088</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="11">
         <f>E5</f>
         <v>63.4</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="9">
         <v>211.6</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="10">
         <v>0.69099999999999995</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="10">
         <f>[1]!PropsSI("H","T",B7+273.15,"P",C7*10^6,"Water")/1000</f>
         <v>2871.4818365716997</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="11">
         <v>14.76</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="9">
         <f>[1]!PropsSI("T","P",C8*10^6,"Q",1,"Water")-273.15</f>
         <v>164.73836143543406</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="10">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="10">
         <f>[1]!PropsSI("H","P",C8*10^6,"Q",1,"Water")/1000</f>
         <v>2762.534980413358</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="11">
         <v>14.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="9">
         <v>164.6</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="10">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="10">
         <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
         <v>695.4937008073166</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="11">
         <v>14.76</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="9">
         <v>60</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="10">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="10">
         <f>[1]!PropsSI("H","T",B10+273.15,"P",C10*10^6,"Water")/1000</f>
         <v>251.74839576328077</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="11">
         <f>E9+E5</f>
         <v>78.16</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="14"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="14"/>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
